--- a/MEDIA/0012_拉亞直營營業額(2020-11-01~2020-11-05).xlsx
+++ b/MEDIA/0012_拉亞直營營業額(2020-11-01~2020-11-05).xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA6"/>
+  <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,61 +514,61 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1564</v>
+        <v>27589</v>
       </c>
       <c r="E3" t="n">
+        <v>70</v>
+      </c>
+      <c r="F3" t="n">
+        <v>12757</v>
+      </c>
+      <c r="G3" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="H3" t="n">
+        <v>60</v>
+      </c>
+      <c r="I3" t="n">
+        <v>6266</v>
+      </c>
+      <c r="J3" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="K3" t="n">
+        <v>21</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4891</v>
+      </c>
+      <c r="M3" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>10</v>
       </c>
-      <c r="F3" t="n">
-        <v>739</v>
-      </c>
-      <c r="G3" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="H3" t="n">
-        <v>11</v>
-      </c>
-      <c r="I3" t="n">
-        <v>825</v>
-      </c>
-      <c r="J3" t="n">
-        <v>52.7</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>2190</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>7.9</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1485</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -580,21 +580,21 @@
         <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>21</v>
+        <v>173</v>
       </c>
       <c r="AA3" t="n">
-        <v>74</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2020-11-03</t>
+          <t>2020-11-02</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>二</t>
+          <t>一</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -603,34 +603,34 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>710</v>
+        <v>14811</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="F4" t="n">
-        <v>115</v>
+        <v>6161</v>
       </c>
       <c r="G4" t="n">
-        <v>16.2</v>
+        <v>41.6</v>
       </c>
       <c r="H4" t="n">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="I4" t="n">
-        <v>595</v>
+        <v>4065</v>
       </c>
       <c r="J4" t="n">
-        <v>83.8</v>
+        <v>27.4</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1665</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>11.2</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -642,22 +642,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>835</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>2085</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>14.1</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -669,21 +669,21 @@
         <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>15</v>
+        <v>144</v>
       </c>
       <c r="AA4" t="n">
-        <v>47</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2020-11-04</t>
+          <t>2020-11-03</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>三</t>
+          <t>二</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -692,34 +692,34 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1070</v>
+        <v>10582</v>
       </c>
       <c r="E5" t="n">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="F5" t="n">
-        <v>640</v>
+        <v>2498</v>
       </c>
       <c r="G5" t="n">
-        <v>59.8</v>
+        <v>23.6</v>
       </c>
       <c r="H5" t="n">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I5" t="n">
-        <v>430</v>
+        <v>3934</v>
       </c>
       <c r="J5" t="n">
-        <v>40.2</v>
+        <v>37.2</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>16.1</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -731,22 +731,22 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>890</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1560</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>14.7</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -758,91 +758,180 @@
         <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="AA5" t="n">
-        <v>51</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2020-11-04</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>三</t>
+        </is>
+      </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>拉亞中北</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>11913</v>
+      </c>
+      <c r="E6" t="n">
+        <v>39</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4098</v>
+      </c>
+      <c r="G6" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="H6" t="n">
+        <v>54</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3325</v>
+      </c>
+      <c r="J6" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="K6" t="n">
+        <v>14</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1400</v>
+      </c>
+      <c r="M6" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>11</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1510</v>
+      </c>
+      <c r="S6" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="T6" t="n">
+        <v>11</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1580</v>
+      </c>
+      <c r="V6" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>129</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>小計</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>3344</v>
-      </c>
-      <c r="E6" t="n">
-        <v>22</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1494</v>
-      </c>
-      <c r="G6" t="n">
-        <v>44.7</v>
-      </c>
-      <c r="H6" t="n">
-        <v>35</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1850</v>
-      </c>
-      <c r="J6" t="n">
-        <v>55.3</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>57</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>59</v>
+      <c r="D7" t="n">
+        <v>64895</v>
+      </c>
+      <c r="E7" t="n">
+        <v>186</v>
+      </c>
+      <c r="F7" t="n">
+        <v>25514</v>
+      </c>
+      <c r="G7" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="H7" t="n">
+        <v>231</v>
+      </c>
+      <c r="I7" t="n">
+        <v>17590</v>
+      </c>
+      <c r="J7" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>62</v>
+      </c>
+      <c r="L7" t="n">
+        <v>9656</v>
+      </c>
+      <c r="M7" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>31</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5425</v>
+      </c>
+      <c r="S7" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="T7" t="n">
+        <v>43</v>
+      </c>
+      <c r="U7" t="n">
+        <v>6710</v>
+      </c>
+      <c r="V7" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>553</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
